--- a/My Data.xlsx
+++ b/My Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCDS\DScience\Excel Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCDS\DScience\Product Excel Sheet Dashboard\Excel-Dashboard\Excel-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9295AD-82CB-4D80-A41B-2DD084BC46CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A572C3-04B7-4FAC-849C-54961CA2AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{963CA61A-8A71-40FC-9F13-05333CB6C293}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -8437,7 +8437,9 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent2">
+              <a:shade val="76000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -8455,7 +8457,9 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent2">
+              <a:tint val="77000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -9960,10 +9964,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10144,7 +10145,9 @@
             <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -10248,7 +10251,9 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -10513,10 +10518,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10681,10 +10683,16 @@
             <a:lin ang="10800000" scaled="1"/>
           </a:gradFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d/>
+          <a:sp3d>
+            <a:contourClr>
+              <a:schemeClr val="accent2"/>
+            </a:contourClr>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -10806,10 +10814,16 @@
               <a:lin ang="10800000" scaled="1"/>
             </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent2"/>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -11151,10 +11165,16 @@
             <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d/>
+          <a:sp3d>
+            <a:contourClr>
+              <a:schemeClr val="accent2"/>
+            </a:contourClr>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -11276,10 +11296,16 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
+            <a:sp3d>
+              <a:contourClr>
+                <a:schemeClr val="accent2"/>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -11432,7 +11458,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -14970,86 +14998,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>436122</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138F718B-110B-40CD-9203-E32794B4C894}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12018522" cy="6807200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -15080,7 +15028,9 @@
           <a:ext cx="1346200" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8975"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -15260,7 +15210,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15298,7 +15248,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15336,7 +15286,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15374,7 +15324,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15412,7 +15362,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15450,7 +15400,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15616,8 +15566,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -15625,8 +15575,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Month 1">
@@ -15649,7 +15599,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15690,6 +15640,581 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE9EDC3-5B07-4146-9359-85BAC02EE2E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="946150"/>
+          <a:ext cx="1651000" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Total Sale:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0220E528-C9F2-4010-9D0C-69E19B120C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5035550" y="971550"/>
+          <a:ext cx="1651000" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Unit Sold:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A526D1E8-7307-4B8A-9F5F-2C1BA901789C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460750" y="1765300"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Payment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Mode: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFA0531-634D-41D1-83ED-3FF214341E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="4292600"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Payment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Mode: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD50815-4BCF-46D0-AB1D-50FC94C37EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4470400"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Top Seller: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43129B41-EBA0-4A3E-9D12-F3ED65920A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7099300" y="4864100"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Previous 28 Days: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62222505-C213-4D50-87BF-68065BAB0CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="3168650"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Last 28 Days: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1987550" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF2DA2-BC46-4E2E-9546-18387DDC01F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="946150"/>
+          <a:ext cx="1987550" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> Sell By Product: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60207</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3505447" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB70908-01D9-4D88-A2A8-BB9137DE9A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60207" y="16960"/>
+          <a:ext cx="3505447" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Dashboard:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32953,1622 +33478,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33695747-D9B8-40C2-98C6-0B5978F56544}" name="PivotTable9" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="J18:K26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" measureFilter="1"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="2">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="15" name="Order Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44866"/>
-            <customFilter operator="lessThanOrEqual" val="44895"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-    <filter fld="6" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="3" filterVal="3"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B39D072E-5DD5-4596-8C75-21FCC7426324}" name="PivotTable8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="G18:H22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="2">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="22" name="Order Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44562"/>
-            <customFilter operator="lessThanOrEqual" val="44895"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-    <filter fld="6" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="3" filterVal="3"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF46FA12-A463-4487-8C72-8C824787DB49}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DFEC8B1-CCE7-4DE4-87DC-CCD20607E4FA}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DFEC8B1-CCE7-4DE4-87DC-CCD20607E4FA}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A20:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -35160,8 +34070,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61491AE-14D1-46A3-A685-5DDFC332A7E0}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61491AE-14D1-46A3-A685-5DDFC332A7E0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -35684,8 +34594,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C73B87EE-4FCD-411D-80D1-DA63DBF1CF40}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C73B87EE-4FCD-411D-80D1-DA63DBF1CF40}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="D20:E49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -36298,8 +35208,1136 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F629AE79-53D4-48E5-98B9-D56D5EF79822}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33695747-D9B8-40C2-98C6-0B5978F56544}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="J18:K26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" measureFilter="1"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="2">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="15" name="Order Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44866"/>
+            <customFilter operator="lessThanOrEqual" val="44895"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+    <filter fld="6" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="3" filterVal="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B39D072E-5DD5-4596-8C75-21FCC7426324}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="G18:H22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="2">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="22" name="Order Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44562"/>
+            <customFilter operator="lessThanOrEqual" val="44895"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+    <filter fld="6" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="3" filterVal="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F629AE79-53D4-48E5-98B9-D56D5EF79822}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -36837,8 +36875,495 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF46FA12-A463-4487-8C72-8C824787DB49}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Qty" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F128F05F-25DD-4E5B-B709-91728E107F2A}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F128F05F-25DD-4E5B-B709-91728E107F2A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -37433,9 +37958,9 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Product" xr10:uid="{89F20E9E-4C19-458B-A95B-F6939921DDA9}" cache="Slicer_Product" caption="Product" showCaption="0" style="SlicerStyleLight4" rowHeight="241300"/>
-  <slicer name="Day" xr10:uid="{5CB05092-5DC1-4C51-B6EB-2B82690C8124}" cache="Slicer_Day" caption="Day" columnCount="4" showCaption="0" style="SlicerStyleDark4" rowHeight="241300"/>
-  <slicer name="Month 1" xr10:uid="{4569B0E8-B569-41D2-9041-B6985C3DB406}" cache="Slicer_Month" caption="Month" columnCount="3" showCaption="0" style="SlicerStyleLight4" rowHeight="241300"/>
+  <slicer name="Product" xr10:uid="{89F20E9E-4C19-458B-A95B-F6939921DDA9}" cache="Slicer_Product" caption="Product" style="SlicerStyleLight4" rowHeight="241300"/>
+  <slicer name="Day" xr10:uid="{5CB05092-5DC1-4C51-B6EB-2B82690C8124}" cache="Slicer_Day" caption="Day" columnCount="4" style="SlicerStyleDark2" rowHeight="241300"/>
+  <slicer name="Month 1" xr10:uid="{4569B0E8-B569-41D2-9041-B6985C3DB406}" cache="Slicer_Month" caption="Month" columnCount="3" style="SlicerStyleLight4" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -96484,18 +97009,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBEF9F-1803-4EB3-B05B-76980F08A441}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
